--- a/meta_data/20020505_Tissue for co_extraction_DESI_DNA_RNA_rep.update_23.9.22.xlsx
+++ b/meta_data/20020505_Tissue for co_extraction_DESI_DNA_RNA_rep.update_23.9.22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\br23n469\Desktop\PanNet_RNASeq_Analysis\meta_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A0C299-D338-45ED-A0D8-1787DE30A6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94E197A-7DE4-4477-AB78-5D62A2C38ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5850" yWindow="1335" windowWidth="21585" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total RNA extraction" sheetId="4" r:id="rId1"/>
@@ -373,6 +373,9 @@
     <t xml:space="preserve">We decided to repeat only those </t>
   </si>
   <si>
+    <t>R 2.1</t>
+  </si>
+  <si>
     <t>R 2.8</t>
   </si>
   <si>
@@ -503,13 +506,13 @@
     <t>C3</t>
   </si>
   <si>
-    <t>R 2.1</t>
+    <t>B-Nr_Original</t>
   </si>
   <si>
     <t>B2004.28272</t>
   </si>
   <si>
-    <t>B-Nr_Original</t>
+    <t>B2011.31750</t>
   </si>
   <si>
     <t>B2015.09393</t>
@@ -519,9 +522,6 @@
   </si>
   <si>
     <t>B2010.03126</t>
-  </si>
-  <si>
-    <t>B2011.31750</t>
   </si>
   <si>
     <t>B2008.04881</t>
@@ -1603,7 +1603,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1655,9 +1655,216 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="22" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="42" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="42" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="24" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1714,12 +1921,120 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="35" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1752,321 +2067,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="42" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="35" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="42" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="44" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2793,8 +2793,8 @@
         <xdr:to>
           <xdr:col>18</xdr:col>
           <xdr:colOff>552450</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2861,7 +2861,7 @@
           <xdr:col>18</xdr:col>
           <xdr:colOff>552450</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3195,8 +3195,8 @@
         <xdr:to>
           <xdr:col>18</xdr:col>
           <xdr:colOff>552450</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3732,7 +3732,7 @@
           <xdr:col>18</xdr:col>
           <xdr:colOff>552450</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3933,7 +3933,7 @@
           <xdr:col>18</xdr:col>
           <xdr:colOff>552450</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4000,7 +4000,7 @@
           <xdr:col>18</xdr:col>
           <xdr:colOff>552450</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4268,7 +4268,7 @@
           <xdr:col>18</xdr:col>
           <xdr:colOff>552450</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4335,7 +4335,7 @@
           <xdr:col>18</xdr:col>
           <xdr:colOff>552450</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4603,7 +4603,7 @@
           <xdr:col>18</xdr:col>
           <xdr:colOff>552450</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5784,2081 +5784,2071 @@
   </sheetPr>
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" style="81" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="69" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="69" customWidth="1"/>
-    <col min="4" max="5" width="18.140625" style="69" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="69" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="69" customWidth="1"/>
-    <col min="8" max="8" width="12" style="69" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="81" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="69" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="69" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="16.42578125" style="152" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="152" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="152" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" style="155" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" style="152" customWidth="1"/>
-    <col min="18" max="18" width="9" style="152" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="69" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="155" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="69" customWidth="1"/>
-    <col min="22" max="22" width="7.5703125" style="69" customWidth="1"/>
-    <col min="23" max="23" width="7.85546875" style="69" customWidth="1"/>
-    <col min="24" max="24" width="10.28515625" style="69" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" style="69" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="69"/>
+    <col min="1" max="1" width="13" style="32" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="26" customWidth="1"/>
+    <col min="4" max="5" width="18.140625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="26" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="12" style="26" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="73" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="26" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="26" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="16.42578125" style="31" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="31" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="31" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" style="42" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" style="31" customWidth="1"/>
+    <col min="18" max="18" width="9" style="31" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="26" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="42" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="26" customWidth="1"/>
+    <col min="22" max="22" width="7.5703125" style="26" customWidth="1"/>
+    <col min="23" max="23" width="7.85546875" style="26" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" style="26" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" style="26" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="59" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="143" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="N1" s="62" t="s">
+      <c r="N1" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="63" t="s">
+      <c r="O1" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="64" t="s">
+      <c r="P1" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="66" t="s">
+      <c r="S1" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="58" t="s">
+      <c r="V1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="58" t="s">
+      <c r="W1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="68"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="55"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70">
+      <c r="A2" s="28">
         <v>44753</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="72">
+      <c r="C2" s="51">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="71">
+      <c r="F2" s="27">
         <v>14</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="72">
+      <c r="I2" s="51">
         <v>2</v>
       </c>
-      <c r="J2" s="71">
+      <c r="J2" s="27">
         <v>44.5</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="73">
+      <c r="K2" s="27"/>
+      <c r="L2" s="29">
         <f>(J2*O2)/1000</f>
         <v>16.643000000000001</v>
       </c>
-      <c r="M2" s="74">
+      <c r="M2" s="80">
         <v>7.9</v>
       </c>
-      <c r="N2" s="75">
+      <c r="N2" s="83">
         <v>466</v>
       </c>
-      <c r="O2" s="76">
+      <c r="O2" s="30">
         <f t="shared" ref="O2:O9" si="0">P2*1000</f>
         <v>374</v>
       </c>
-      <c r="P2" s="77">
+      <c r="P2" s="47">
         <v>0.374</v>
       </c>
-      <c r="Q2" s="78">
+      <c r="Q2" s="56">
         <f t="shared" ref="Q2:Q9" si="1">50/L2</f>
         <v>3.004266057802079</v>
       </c>
-      <c r="R2" s="71">
+      <c r="R2" s="27">
         <v>44.5</v>
       </c>
-      <c r="S2" s="79"/>
-      <c r="T2" s="80">
+      <c r="S2" s="44"/>
+      <c r="T2" s="41">
         <f t="shared" ref="T2:T26" si="2">P2*1000</f>
         <v>374</v>
       </c>
-      <c r="U2" s="81">
+      <c r="U2" s="32">
         <f>T2/1000000</f>
         <v>3.7399999999999998E-4</v>
       </c>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="82" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="155" t="s">
         <v>81</v>
       </c>
-      <c r="Y2" s="83" t="s">
+      <c r="Y2" s="158" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="70">
+      <c r="A3" s="28">
         <v>44753</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="51">
         <v>1.2</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="71">
+      <c r="F3" s="27">
         <v>10</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="72">
+      <c r="I3" s="51">
         <v>2</v>
       </c>
-      <c r="J3" s="71">
+      <c r="J3" s="27">
         <v>44.5</v>
       </c>
-      <c r="K3" s="71"/>
-      <c r="L3" s="73">
+      <c r="K3" s="27"/>
+      <c r="L3" s="29">
         <f t="shared" ref="L3:L26" si="3">(J3*O3)/1000</f>
         <v>13.260999999999999</v>
       </c>
-      <c r="M3" s="84">
+      <c r="M3" s="81">
         <v>8.6</v>
       </c>
-      <c r="N3" s="85">
+      <c r="N3" s="82">
         <v>344</v>
       </c>
-      <c r="O3" s="76">
+      <c r="O3" s="30">
         <f t="shared" si="0"/>
         <v>298</v>
       </c>
-      <c r="P3" s="77">
+      <c r="P3" s="47">
         <v>0.29799999999999999</v>
       </c>
-      <c r="Q3" s="78">
+      <c r="Q3" s="56">
         <f t="shared" si="1"/>
         <v>3.7704547168388509</v>
       </c>
-      <c r="R3" s="71">
+      <c r="R3" s="27">
         <v>44.5</v>
       </c>
-      <c r="S3" s="79"/>
-      <c r="T3" s="80">
+      <c r="S3" s="44"/>
+      <c r="T3" s="41">
         <f t="shared" si="2"/>
         <v>298</v>
       </c>
-      <c r="U3" s="81">
+      <c r="U3" s="32">
         <f t="shared" ref="U3:U26" si="4">T3/1000000</f>
         <v>2.9799999999999998E-4</v>
       </c>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="87"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="156"/>
+      <c r="Y3" s="159"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="70">
+      <c r="A4" s="28">
         <v>44753</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="51">
         <v>1.3</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="27">
         <v>14</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="72">
+      <c r="I4" s="51">
         <v>2</v>
       </c>
-      <c r="J4" s="71">
+      <c r="J4" s="27">
         <v>44.5</v>
       </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="73">
+      <c r="K4" s="27"/>
+      <c r="L4" s="29">
         <f t="shared" si="3"/>
         <v>12.682499999999999</v>
       </c>
-      <c r="M4" s="84">
+      <c r="M4" s="81">
         <v>8.4</v>
       </c>
-      <c r="N4" s="85">
+      <c r="N4" s="82">
         <v>344</v>
       </c>
-      <c r="O4" s="76">
+      <c r="O4" s="30">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="P4" s="77">
+      <c r="P4" s="47">
         <v>0.28499999999999998</v>
       </c>
-      <c r="Q4" s="78">
+      <c r="Q4" s="56">
         <f t="shared" si="1"/>
         <v>3.9424403705893951</v>
       </c>
-      <c r="R4" s="71">
+      <c r="R4" s="27">
         <v>44.5</v>
       </c>
-      <c r="S4" s="79"/>
-      <c r="T4" s="80">
+      <c r="S4" s="44"/>
+      <c r="T4" s="41">
         <f t="shared" si="2"/>
         <v>285</v>
       </c>
-      <c r="U4" s="81">
+      <c r="U4" s="32">
         <f t="shared" si="4"/>
         <v>2.8499999999999999E-4</v>
       </c>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="87"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="156"/>
+      <c r="Y4" s="159"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="70">
+      <c r="A5" s="28">
         <v>44753</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="51">
         <v>1.4</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="27">
         <v>10</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="51">
         <v>2</v>
       </c>
-      <c r="J5" s="71">
+      <c r="J5" s="27">
         <v>44.5</v>
       </c>
-      <c r="K5" s="71"/>
-      <c r="L5" s="73">
+      <c r="K5" s="27"/>
+      <c r="L5" s="29">
         <f t="shared" si="3"/>
         <v>9.2114999999999991</v>
       </c>
-      <c r="M5" s="84">
+      <c r="M5" s="81">
         <v>8.9</v>
       </c>
-      <c r="N5" s="85">
+      <c r="N5" s="82">
         <v>238</v>
       </c>
-      <c r="O5" s="76">
+      <c r="O5" s="30">
         <f t="shared" si="0"/>
         <v>207</v>
       </c>
-      <c r="P5" s="77">
+      <c r="P5" s="47">
         <v>0.20699999999999999</v>
       </c>
-      <c r="Q5" s="78">
+      <c r="Q5" s="56">
         <f t="shared" si="1"/>
         <v>5.4279976116810511</v>
       </c>
-      <c r="R5" s="71">
+      <c r="R5" s="27">
         <v>44.5</v>
       </c>
-      <c r="S5" s="79"/>
-      <c r="T5" s="80">
+      <c r="S5" s="44"/>
+      <c r="T5" s="41">
         <f t="shared" si="2"/>
         <v>207</v>
       </c>
-      <c r="U5" s="81">
+      <c r="U5" s="32">
         <f t="shared" si="4"/>
         <v>2.0699999999999999E-4</v>
       </c>
-      <c r="V5" s="81"/>
-      <c r="W5" s="81"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="87"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="156"/>
+      <c r="Y5" s="159"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="70">
+      <c r="A6" s="28">
         <v>44753</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="51">
         <v>1.5</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="27">
         <v>8</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="51">
         <v>2</v>
       </c>
-      <c r="J6" s="71">
+      <c r="J6" s="27">
         <v>44.5</v>
       </c>
-      <c r="K6" s="71"/>
-      <c r="L6" s="73">
+      <c r="K6" s="27"/>
+      <c r="L6" s="29">
         <f t="shared" si="3"/>
         <v>12.0595</v>
       </c>
-      <c r="M6" s="84">
+      <c r="M6" s="81">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N6" s="85">
+      <c r="N6" s="82">
         <v>308</v>
       </c>
-      <c r="O6" s="76">
+      <c r="O6" s="30">
         <f t="shared" si="0"/>
         <v>271</v>
       </c>
-      <c r="P6" s="77">
+      <c r="P6" s="47">
         <v>0.27100000000000002</v>
       </c>
-      <c r="Q6" s="78">
+      <c r="Q6" s="56">
         <f t="shared" si="1"/>
         <v>4.1461088768191052</v>
       </c>
-      <c r="R6" s="71">
+      <c r="R6" s="27">
         <v>44.5</v>
       </c>
-      <c r="S6" s="79"/>
-      <c r="T6" s="80">
+      <c r="S6" s="44"/>
+      <c r="T6" s="41">
         <f t="shared" si="2"/>
         <v>271</v>
       </c>
-      <c r="U6" s="81">
+      <c r="U6" s="32">
         <f t="shared" si="4"/>
         <v>2.7099999999999997E-4</v>
       </c>
-      <c r="V6" s="81"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="87"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="156"/>
+      <c r="Y6" s="159"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
+      <c r="A7" s="28">
         <v>44753</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="51">
         <v>1.6</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="27">
         <v>11</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="51">
         <v>2</v>
       </c>
-      <c r="J7" s="71">
+      <c r="J7" s="27">
         <v>44.5</v>
       </c>
-      <c r="K7" s="71"/>
-      <c r="L7" s="73">
+      <c r="K7" s="27"/>
+      <c r="L7" s="29">
         <f t="shared" si="3"/>
         <v>30.8385</v>
       </c>
-      <c r="M7" s="84">
+      <c r="M7" s="81">
         <v>9.4</v>
       </c>
-      <c r="N7" s="85">
+      <c r="N7" s="82">
         <v>758</v>
       </c>
-      <c r="O7" s="76">
+      <c r="O7" s="30">
         <f t="shared" si="0"/>
         <v>693</v>
       </c>
-      <c r="P7" s="77">
+      <c r="P7" s="47">
         <v>0.69299999999999995</v>
       </c>
-      <c r="Q7" s="78">
+      <c r="Q7" s="56">
         <f t="shared" si="1"/>
         <v>1.6213499359566776</v>
       </c>
-      <c r="R7" s="71">
+      <c r="R7" s="27">
         <v>44.5</v>
       </c>
-      <c r="S7" s="88"/>
-      <c r="T7" s="80">
+      <c r="S7" s="45"/>
+      <c r="T7" s="41">
         <f t="shared" si="2"/>
         <v>693</v>
       </c>
-      <c r="U7" s="81">
+      <c r="U7" s="32">
         <f t="shared" si="4"/>
         <v>6.9300000000000004E-4</v>
       </c>
-      <c r="V7" s="81"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="87"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="156"/>
+      <c r="Y7" s="159"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="70">
+      <c r="A8" s="28">
         <v>44753</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="51">
         <v>1.7</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="27">
         <v>8</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="H8" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="51">
         <v>2</v>
       </c>
-      <c r="J8" s="71">
+      <c r="J8" s="27">
         <v>44.5</v>
       </c>
-      <c r="K8" s="71"/>
-      <c r="L8" s="73">
+      <c r="K8" s="27"/>
+      <c r="L8" s="29">
         <f t="shared" si="3"/>
         <v>6.9420000000000002</v>
       </c>
-      <c r="M8" s="84">
+      <c r="M8" s="81">
         <v>8.1</v>
       </c>
-      <c r="N8" s="85">
+      <c r="N8" s="82">
         <v>183</v>
       </c>
-      <c r="O8" s="76">
+      <c r="O8" s="30">
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
-      <c r="P8" s="77">
+      <c r="P8" s="47">
         <v>0.156</v>
       </c>
-      <c r="Q8" s="78">
+      <c r="Q8" s="56">
         <f t="shared" si="1"/>
         <v>7.2025352924229331</v>
       </c>
-      <c r="R8" s="71">
+      <c r="R8" s="27">
         <v>44.5</v>
       </c>
-      <c r="S8" s="79"/>
-      <c r="T8" s="80">
+      <c r="S8" s="44"/>
+      <c r="T8" s="41">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="U8" s="81">
+      <c r="U8" s="32">
         <f t="shared" si="4"/>
         <v>1.56E-4</v>
       </c>
-      <c r="V8" s="81"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="87"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="156"/>
+      <c r="Y8" s="159"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="70">
+      <c r="A9" s="28">
         <v>44753</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="89">
+      <c r="C9" s="92">
         <v>1.8</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="90" t="s">
+      <c r="E9" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="90">
+      <c r="F9" s="86">
         <v>11</v>
       </c>
-      <c r="G9" s="90" t="s">
+      <c r="G9" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="90" t="s">
+      <c r="H9" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="89">
+      <c r="I9" s="92">
         <v>2</v>
       </c>
-      <c r="J9" s="90">
+      <c r="J9" s="86">
         <v>44.5</v>
       </c>
-      <c r="K9" s="71"/>
-      <c r="L9" s="91">
+      <c r="K9" s="27"/>
+      <c r="L9" s="134">
         <f t="shared" si="3"/>
         <v>15.308</v>
       </c>
-      <c r="M9" s="92">
+      <c r="M9" s="128">
         <v>6.8</v>
       </c>
-      <c r="N9" s="92">
+      <c r="N9" s="128">
         <v>464</v>
       </c>
-      <c r="O9" s="76">
+      <c r="O9" s="30">
         <f t="shared" si="0"/>
         <v>344</v>
       </c>
-      <c r="P9" s="77">
+      <c r="P9" s="47">
         <v>0.34399999999999997</v>
       </c>
-      <c r="Q9" s="78">
+      <c r="Q9" s="56">
         <f t="shared" si="1"/>
         <v>3.2662660047034229</v>
       </c>
-      <c r="R9" s="71">
+      <c r="R9" s="27">
         <v>44.5</v>
       </c>
-      <c r="S9" s="79"/>
-      <c r="T9" s="80">
+      <c r="S9" s="44"/>
+      <c r="T9" s="41">
         <f t="shared" si="2"/>
         <v>344</v>
       </c>
-      <c r="U9" s="81">
+      <c r="U9" s="32">
         <f t="shared" si="4"/>
         <v>3.4400000000000001E-4</v>
       </c>
-      <c r="V9" s="81"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="87"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="156"/>
+      <c r="Y9" s="159"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70">
+      <c r="A10" s="28">
         <v>44823</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="57" t="s">
+      <c r="C10" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="93">
+      <c r="E10" s="146" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="85">
         <v>20</v>
       </c>
-      <c r="G10" s="90" t="s">
+      <c r="G10" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" s="57">
-        <v>1</v>
-      </c>
-      <c r="J10" s="93">
+      <c r="H10" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="142"/>
+      <c r="J10" s="85">
         <v>49.5</v>
       </c>
-      <c r="K10" s="71"/>
-      <c r="L10" s="95">
+      <c r="K10" s="27"/>
+      <c r="L10" s="136">
         <f t="shared" si="3"/>
         <v>27.3735</v>
       </c>
-      <c r="M10" s="96">
+      <c r="M10" s="130">
         <v>7.8</v>
       </c>
-      <c r="N10" s="97">
+      <c r="N10" s="127">
         <v>680</v>
       </c>
-      <c r="O10" s="98">
+      <c r="O10" s="123">
         <f>P10*1000</f>
         <v>553</v>
       </c>
-      <c r="P10" s="77">
+      <c r="P10" s="46">
         <v>0.55300000000000005</v>
       </c>
-      <c r="Q10" s="78">
+      <c r="Q10" s="56">
         <f t="shared" ref="Q10:Q26" si="5">50/L10</f>
         <v>1.8265841050651177</v>
       </c>
-      <c r="R10" s="71">
+      <c r="R10" s="27">
         <v>49.5</v>
       </c>
-      <c r="S10" s="99"/>
-      <c r="T10" s="80">
+      <c r="S10" s="139"/>
+      <c r="T10" s="41">
         <f t="shared" si="2"/>
         <v>553</v>
       </c>
-      <c r="U10" s="81">
+      <c r="U10" s="32">
         <f t="shared" si="4"/>
         <v>5.53E-4</v>
       </c>
-      <c r="V10" s="81"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="87"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="156"/>
+      <c r="Y10" s="159"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
+      <c r="A11" s="28">
         <v>44755</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="27">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="144" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="144" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="27">
         <v>23</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="71">
+      <c r="I11" s="27">
         <v>1</v>
       </c>
-      <c r="J11" s="71">
+      <c r="J11" s="27">
         <v>45.5</v>
       </c>
-      <c r="K11" s="71"/>
-      <c r="L11" s="73">
+      <c r="K11" s="27"/>
+      <c r="L11" s="29">
         <f t="shared" si="3"/>
         <v>67.34</v>
       </c>
-      <c r="M11" s="100">
+      <c r="M11" s="129">
         <v>8.5</v>
       </c>
-      <c r="N11" s="75">
+      <c r="N11" s="83">
         <v>824</v>
       </c>
-      <c r="O11" s="76">
+      <c r="O11" s="30">
         <f t="shared" ref="O11:O25" si="6">P11*1000</f>
         <v>1480</v>
       </c>
-      <c r="P11" s="77">
+      <c r="P11" s="46">
         <v>1.48</v>
       </c>
-      <c r="Q11" s="78">
+      <c r="Q11" s="56">
         <f t="shared" si="5"/>
         <v>0.74250074250074249</v>
       </c>
-      <c r="R11" s="71">
+      <c r="R11" s="27">
         <v>45.5</v>
       </c>
-      <c r="S11" s="88"/>
-      <c r="T11" s="80">
+      <c r="S11" s="45"/>
+      <c r="T11" s="41">
         <f t="shared" si="2"/>
         <v>1480</v>
       </c>
-      <c r="U11" s="81">
+      <c r="U11" s="32">
         <f t="shared" si="4"/>
         <v>1.48E-3</v>
       </c>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="87"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="156"/>
+      <c r="Y11" s="159"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="70">
+      <c r="A12" s="28">
         <v>44755</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="90">
+      <c r="C12" s="86">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="90" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="90">
+      <c r="E12" s="145" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="86">
         <v>9</v>
       </c>
-      <c r="G12" s="90" t="s">
+      <c r="G12" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="90" t="s">
+      <c r="H12" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="90">
+      <c r="I12" s="86">
         <v>1</v>
       </c>
-      <c r="J12" s="90">
+      <c r="J12" s="86">
         <v>45.5</v>
       </c>
-      <c r="K12" s="71"/>
-      <c r="L12" s="91">
+      <c r="K12" s="27"/>
+      <c r="L12" s="134">
         <f t="shared" si="3"/>
         <v>48.685000000000002</v>
       </c>
-      <c r="M12" s="101">
+      <c r="M12" s="87">
         <v>6.4</v>
       </c>
-      <c r="N12" s="101">
+      <c r="N12" s="87">
         <v>492</v>
       </c>
-      <c r="O12" s="76">
+      <c r="O12" s="30">
         <f t="shared" si="6"/>
         <v>1070</v>
       </c>
-      <c r="P12" s="77">
+      <c r="P12" s="46">
         <v>1.07</v>
       </c>
-      <c r="Q12" s="78">
+      <c r="Q12" s="56">
         <f t="shared" si="5"/>
         <v>1.0270103728047653</v>
       </c>
-      <c r="R12" s="71">
+      <c r="R12" s="27">
         <v>45.5</v>
       </c>
-      <c r="S12" s="79"/>
-      <c r="T12" s="80">
+      <c r="S12" s="44"/>
+      <c r="T12" s="41">
         <f t="shared" si="2"/>
         <v>1070</v>
       </c>
-      <c r="U12" s="81">
+      <c r="U12" s="32">
         <f t="shared" si="4"/>
         <v>1.07E-3</v>
       </c>
-      <c r="V12" s="81"/>
-      <c r="W12" s="81"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="87"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="156"/>
+      <c r="Y12" s="159"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="70">
+      <c r="A13" s="28">
         <v>44755</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="27">
         <v>2.4</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" s="71">
+      <c r="E13" s="144" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="27">
         <v>7</v>
       </c>
-      <c r="G13" s="71" t="s">
+      <c r="G13" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="71">
+      <c r="I13" s="27">
         <v>1</v>
       </c>
-      <c r="J13" s="71">
+      <c r="J13" s="27">
         <v>45.5</v>
       </c>
-      <c r="K13" s="71"/>
-      <c r="L13" s="73">
+      <c r="K13" s="27"/>
+      <c r="L13" s="29">
         <f t="shared" si="3"/>
         <v>25.070499999999999</v>
       </c>
-      <c r="M13" s="102">
+      <c r="M13" s="124">
         <v>10</v>
       </c>
-      <c r="N13" s="103">
+      <c r="N13" s="125">
         <v>238</v>
       </c>
-      <c r="O13" s="76">
+      <c r="O13" s="30">
         <f t="shared" si="6"/>
         <v>551</v>
       </c>
-      <c r="P13" s="77">
+      <c r="P13" s="46">
         <v>0.55100000000000005</v>
       </c>
-      <c r="Q13" s="78">
+      <c r="Q13" s="56">
         <f>50/L13</f>
         <v>1.9943758600745898</v>
       </c>
-      <c r="R13" s="71">
+      <c r="R13" s="27">
         <v>45.5</v>
       </c>
-      <c r="S13" s="79"/>
-      <c r="T13" s="80">
+      <c r="S13" s="44"/>
+      <c r="T13" s="41">
         <f t="shared" si="2"/>
         <v>551</v>
       </c>
-      <c r="U13" s="81">
+      <c r="U13" s="32">
         <f t="shared" si="4"/>
         <v>5.5099999999999995E-4</v>
       </c>
-      <c r="V13" s="81"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="87"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="156"/>
+      <c r="Y13" s="159"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70">
+      <c r="A14" s="28">
         <v>44823</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="161" t="s">
+      <c r="C14" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="161" t="s">
+      <c r="E14" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="93">
+      <c r="F14" s="85">
         <v>10</v>
       </c>
-      <c r="G14" s="71" t="s">
+      <c r="G14" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="57">
-        <v>1</v>
-      </c>
-      <c r="J14" s="93">
+      <c r="H14" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="142"/>
+      <c r="J14" s="85">
         <v>49.5</v>
       </c>
-      <c r="K14" s="71"/>
-      <c r="L14" s="95">
+      <c r="K14" s="27"/>
+      <c r="L14" s="136">
         <f t="shared" si="3"/>
         <v>45.54</v>
       </c>
-      <c r="M14" s="104">
+      <c r="M14" s="126">
         <v>7.5</v>
       </c>
-      <c r="N14" s="105">
+      <c r="N14" s="138">
         <v>476</v>
       </c>
-      <c r="O14" s="98">
+      <c r="O14" s="123">
         <f t="shared" si="6"/>
         <v>920</v>
       </c>
-      <c r="P14" s="77">
+      <c r="P14" s="46">
         <v>0.92</v>
       </c>
-      <c r="Q14" s="78">
+      <c r="Q14" s="56">
         <f t="shared" si="5"/>
         <v>1.0979358805445762</v>
       </c>
-      <c r="R14" s="71">
+      <c r="R14" s="27">
         <v>49.5</v>
       </c>
-      <c r="S14" s="88"/>
-      <c r="T14" s="80">
+      <c r="S14" s="45"/>
+      <c r="T14" s="41">
         <f t="shared" si="2"/>
         <v>920</v>
       </c>
-      <c r="U14" s="81">
+      <c r="U14" s="32">
         <f t="shared" si="4"/>
         <v>9.2000000000000003E-4</v>
       </c>
-      <c r="V14" s="81"/>
-      <c r="W14" s="81"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="87"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="156"/>
+      <c r="Y14" s="159"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70">
+      <c r="A15" s="28">
         <v>44823</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="93" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="161" t="s">
+      <c r="C15" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="161" t="s">
+      <c r="E15" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="93">
+      <c r="F15" s="85">
         <v>7</v>
       </c>
-      <c r="G15" s="71" t="s">
+      <c r="G15" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="57">
-        <v>1</v>
-      </c>
-      <c r="J15" s="93">
+      <c r="H15" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="142"/>
+      <c r="J15" s="85">
         <v>49.5</v>
       </c>
-      <c r="K15" s="71"/>
-      <c r="L15" s="95">
+      <c r="K15" s="27"/>
+      <c r="L15" s="136">
         <f t="shared" si="3"/>
         <v>8.6129999999999995</v>
       </c>
-      <c r="M15" s="104">
+      <c r="M15" s="126">
         <v>5</v>
       </c>
-      <c r="N15" s="105">
+      <c r="N15" s="138">
         <v>202</v>
       </c>
-      <c r="O15" s="98">
+      <c r="O15" s="123">
         <f t="shared" si="6"/>
         <v>174</v>
       </c>
-      <c r="P15" s="77">
+      <c r="P15" s="46">
         <v>0.17399999999999999</v>
       </c>
-      <c r="Q15" s="78">
+      <c r="Q15" s="56">
         <f t="shared" si="5"/>
         <v>5.8051782189713226</v>
       </c>
-      <c r="R15" s="71">
+      <c r="R15" s="27">
         <v>49.5</v>
       </c>
-      <c r="S15" s="88"/>
-      <c r="T15" s="80">
+      <c r="S15" s="45"/>
+      <c r="T15" s="41">
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
-      <c r="U15" s="81">
+      <c r="U15" s="32">
         <f t="shared" si="4"/>
         <v>1.74E-4</v>
       </c>
-      <c r="V15" s="81"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="87"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="156"/>
+      <c r="Y15" s="159"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="70">
+      <c r="A16" s="28">
         <v>44755</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C16" s="86">
         <v>2.7</v>
       </c>
-      <c r="D16" s="90" t="s">
+      <c r="D16" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="90" t="s">
+      <c r="E16" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="86">
         <v>6</v>
       </c>
-      <c r="G16" s="90" t="s">
+      <c r="G16" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="90" t="s">
+      <c r="H16" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="90">
+      <c r="I16" s="86">
         <v>1</v>
       </c>
-      <c r="J16" s="90">
+      <c r="J16" s="86">
         <v>45.5</v>
       </c>
-      <c r="K16" s="71"/>
-      <c r="L16" s="91">
+      <c r="K16" s="27"/>
+      <c r="L16" s="134">
         <f t="shared" si="3"/>
         <v>12.012</v>
       </c>
-      <c r="M16" s="106">
+      <c r="M16" s="132">
         <v>7.2</v>
       </c>
-      <c r="N16" s="106">
+      <c r="N16" s="132">
         <v>102</v>
       </c>
-      <c r="O16" s="76">
+      <c r="O16" s="30">
         <f t="shared" si="6"/>
         <v>264</v>
       </c>
-      <c r="P16" s="77">
+      <c r="P16" s="46">
         <v>0.26400000000000001</v>
       </c>
-      <c r="Q16" s="78">
+      <c r="Q16" s="56">
         <f t="shared" si="5"/>
         <v>4.1625041625041623</v>
       </c>
-      <c r="R16" s="71">
+      <c r="R16" s="27">
         <v>45.5</v>
       </c>
-      <c r="S16" s="88"/>
-      <c r="T16" s="80">
+      <c r="S16" s="45"/>
+      <c r="T16" s="41">
         <f t="shared" si="2"/>
         <v>264</v>
       </c>
-      <c r="U16" s="81">
+      <c r="U16" s="32">
         <f t="shared" si="4"/>
         <v>2.6400000000000002E-4</v>
       </c>
-      <c r="V16" s="81"/>
-      <c r="W16" s="81"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="87"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="156"/>
+      <c r="Y16" s="159"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="70">
+      <c r="A17" s="28">
         <v>44823</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="93" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="94" t="s">
+      <c r="C17" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="93">
+      <c r="E17" s="146" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="85">
         <v>9</v>
       </c>
-      <c r="G17" s="90" t="s">
+      <c r="G17" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" s="57">
-        <v>1</v>
-      </c>
-      <c r="J17" s="93">
+      <c r="H17" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="142"/>
+      <c r="J17" s="85">
         <v>49.5</v>
       </c>
-      <c r="K17" s="71"/>
-      <c r="L17" s="95">
+      <c r="K17" s="27"/>
+      <c r="L17" s="136">
         <f t="shared" si="3"/>
         <v>28.809000000000001</v>
       </c>
-      <c r="M17" s="96">
+      <c r="M17" s="130">
         <v>7.2</v>
       </c>
-      <c r="N17" s="97">
+      <c r="N17" s="127">
         <v>630</v>
       </c>
-      <c r="O17" s="98">
+      <c r="O17" s="123">
         <f t="shared" si="6"/>
         <v>582</v>
       </c>
-      <c r="P17" s="77">
+      <c r="P17" s="46">
         <v>0.58199999999999996</v>
       </c>
-      <c r="Q17" s="78">
+      <c r="Q17" s="56">
         <f t="shared" si="5"/>
         <v>1.7355687458780242</v>
       </c>
-      <c r="R17" s="71">
+      <c r="R17" s="27">
         <v>49.5</v>
       </c>
-      <c r="T17" s="80">
+      <c r="T17" s="41">
         <f t="shared" si="2"/>
         <v>582</v>
       </c>
-      <c r="U17" s="81">
+      <c r="U17" s="32">
         <f t="shared" si="4"/>
         <v>5.8200000000000005E-4</v>
       </c>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="87"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="156"/>
+      <c r="Y17" s="159"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="70">
+      <c r="A18" s="28">
         <v>44761</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="71">
+      <c r="C18" s="27">
         <v>3.1</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="71">
+      <c r="F18" s="27">
         <v>7</v>
       </c>
-      <c r="G18" s="71" t="s">
+      <c r="G18" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="71" t="s">
+      <c r="H18" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="71">
+      <c r="I18" s="27">
         <v>1</v>
       </c>
-      <c r="J18" s="71">
+      <c r="J18" s="27">
         <v>47</v>
       </c>
-      <c r="K18" s="71"/>
-      <c r="L18" s="73">
+      <c r="K18" s="27"/>
+      <c r="L18" s="29">
         <f t="shared" si="3"/>
         <v>19.504999999999999</v>
       </c>
-      <c r="M18" s="100">
+      <c r="M18" s="129">
         <v>9</v>
       </c>
-      <c r="N18" s="75">
+      <c r="N18" s="83">
         <v>165</v>
       </c>
-      <c r="O18" s="76">
+      <c r="O18" s="30">
         <f t="shared" si="6"/>
         <v>415</v>
       </c>
-      <c r="P18" s="77">
+      <c r="P18" s="46">
         <v>0.41499999999999998</v>
       </c>
-      <c r="Q18" s="78">
+      <c r="Q18" s="56">
         <f t="shared" si="5"/>
         <v>2.5634452704434763</v>
       </c>
-      <c r="R18" s="71">
+      <c r="R18" s="27">
         <v>47</v>
       </c>
-      <c r="S18" s="79"/>
-      <c r="T18" s="80">
+      <c r="S18" s="44"/>
+      <c r="T18" s="41">
         <f t="shared" si="2"/>
         <v>415</v>
       </c>
-      <c r="U18" s="81">
+      <c r="U18" s="32">
         <f t="shared" si="4"/>
         <v>4.15E-4</v>
       </c>
-      <c r="V18" s="81"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="87"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="156"/>
+      <c r="Y18" s="159"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="70">
+      <c r="A19" s="28">
         <v>44761</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="71">
+      <c r="C19" s="27">
         <v>3.2</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" s="71">
+      <c r="E19" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="27">
         <v>8</v>
       </c>
-      <c r="G19" s="71" t="s">
+      <c r="G19" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="71" t="s">
+      <c r="H19" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="71">
+      <c r="I19" s="27">
         <v>1</v>
       </c>
-      <c r="J19" s="71">
+      <c r="J19" s="27">
         <v>47</v>
       </c>
-      <c r="K19" s="71"/>
-      <c r="L19" s="73">
+      <c r="K19" s="27"/>
+      <c r="L19" s="29">
         <f t="shared" si="3"/>
         <v>27.353999999999999</v>
       </c>
-      <c r="M19" s="107">
+      <c r="M19" s="122">
         <v>8</v>
       </c>
-      <c r="N19" s="85">
+      <c r="N19" s="82">
         <v>282</v>
       </c>
-      <c r="O19" s="76">
+      <c r="O19" s="30">
         <f t="shared" si="6"/>
         <v>582</v>
       </c>
-      <c r="P19" s="77">
+      <c r="P19" s="46">
         <v>0.58199999999999996</v>
       </c>
-      <c r="Q19" s="78">
+      <c r="Q19" s="56">
         <f t="shared" si="5"/>
         <v>1.827886232360898</v>
       </c>
-      <c r="R19" s="71">
+      <c r="R19" s="27">
         <v>47</v>
       </c>
-      <c r="S19" s="88"/>
-      <c r="T19" s="80">
+      <c r="S19" s="45"/>
+      <c r="T19" s="41">
         <f t="shared" si="2"/>
         <v>582</v>
       </c>
-      <c r="U19" s="81">
+      <c r="U19" s="32">
         <f t="shared" si="4"/>
         <v>5.8200000000000005E-4</v>
       </c>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="87"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="156"/>
+      <c r="Y19" s="159"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="70">
+      <c r="A20" s="28">
         <v>44761</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="90">
+      <c r="C20" s="86">
         <v>3.3</v>
       </c>
-      <c r="D20" s="90" t="s">
+      <c r="D20" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20" s="90">
+      <c r="E20" s="145" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="86">
         <v>7</v>
       </c>
-      <c r="G20" s="90" t="s">
+      <c r="G20" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="90" t="s">
+      <c r="H20" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="I20" s="90">
+      <c r="I20" s="86">
         <v>1</v>
       </c>
-      <c r="J20" s="90">
+      <c r="J20" s="86">
         <v>47</v>
       </c>
-      <c r="K20" s="71"/>
-      <c r="L20" s="91">
+      <c r="K20" s="27"/>
+      <c r="L20" s="134">
         <f t="shared" si="3"/>
         <v>32.994</v>
       </c>
-      <c r="M20" s="101">
+      <c r="M20" s="87">
         <v>7.1</v>
       </c>
-      <c r="N20" s="101">
+      <c r="N20" s="87">
         <v>306</v>
       </c>
-      <c r="O20" s="76">
+      <c r="O20" s="30">
         <f t="shared" si="6"/>
         <v>702</v>
       </c>
-      <c r="P20" s="77">
+      <c r="P20" s="46">
         <v>0.70199999999999996</v>
       </c>
-      <c r="Q20" s="78">
+      <c r="Q20" s="56">
         <f t="shared" si="5"/>
         <v>1.5154270473419409</v>
       </c>
-      <c r="R20" s="71">
+      <c r="R20" s="27">
         <v>47</v>
       </c>
-      <c r="S20" s="79"/>
-      <c r="T20" s="80">
+      <c r="S20" s="44"/>
+      <c r="T20" s="41">
         <f t="shared" si="2"/>
         <v>702</v>
       </c>
-      <c r="U20" s="81">
+      <c r="U20" s="32">
         <f t="shared" si="4"/>
         <v>7.0200000000000004E-4</v>
       </c>
-      <c r="V20" s="81"/>
-      <c r="W20" s="81"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="87"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="156"/>
+      <c r="Y20" s="159"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="70">
+      <c r="A21" s="28">
         <v>44761</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="90">
+      <c r="C21" s="86">
         <v>3.4</v>
       </c>
-      <c r="D21" s="90" t="s">
+      <c r="D21" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="F21" s="90">
+      <c r="E21" s="145" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="86">
         <v>6</v>
       </c>
-      <c r="G21" s="90" t="s">
+      <c r="G21" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="90" t="s">
+      <c r="H21" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="I21" s="90">
+      <c r="I21" s="86">
         <v>1</v>
       </c>
-      <c r="J21" s="90">
+      <c r="J21" s="86">
         <v>47</v>
       </c>
-      <c r="K21" s="71"/>
-      <c r="L21" s="91">
+      <c r="K21" s="27"/>
+      <c r="L21" s="134">
         <f t="shared" si="3"/>
         <v>28.247</v>
       </c>
-      <c r="M21" s="92">
+      <c r="M21" s="128">
         <v>6.8</v>
       </c>
-      <c r="N21" s="92">
+      <c r="N21" s="128">
         <v>238</v>
       </c>
-      <c r="O21" s="76">
+      <c r="O21" s="30">
         <f t="shared" si="6"/>
         <v>601</v>
       </c>
-      <c r="P21" s="77">
+      <c r="P21" s="46">
         <v>0.60099999999999998</v>
       </c>
-      <c r="Q21" s="78">
+      <c r="Q21" s="56">
         <f t="shared" si="5"/>
         <v>1.770099479590753</v>
       </c>
-      <c r="R21" s="71">
+      <c r="R21" s="27">
         <v>47</v>
       </c>
-      <c r="S21" s="79"/>
-      <c r="T21" s="80">
+      <c r="S21" s="44"/>
+      <c r="T21" s="41">
         <f t="shared" si="2"/>
         <v>601</v>
       </c>
-      <c r="U21" s="81">
+      <c r="U21" s="32">
         <f t="shared" si="4"/>
         <v>6.0099999999999997E-4</v>
       </c>
-      <c r="V21" s="81"/>
-      <c r="W21" s="81"/>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="87"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="156"/>
+      <c r="Y21" s="159"/>
     </row>
     <row r="22" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="70">
+      <c r="A22" s="28">
         <v>44823</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="108" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="94" t="s">
+      <c r="C22" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="146" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="146" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="108">
+      <c r="F22" s="100">
         <v>10</v>
       </c>
-      <c r="G22" s="90" t="s">
+      <c r="G22" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="57">
-        <v>1</v>
-      </c>
-      <c r="J22" s="93">
+      <c r="H22" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="142"/>
+      <c r="J22" s="85">
         <v>49.5</v>
       </c>
-      <c r="K22" s="109"/>
-      <c r="L22" s="110">
+      <c r="K22" s="48"/>
+      <c r="L22" s="137">
         <f t="shared" si="3"/>
         <v>14.3055</v>
       </c>
-      <c r="M22" s="96">
+      <c r="M22" s="130">
         <v>9</v>
       </c>
-      <c r="N22" s="97">
+      <c r="N22" s="127">
         <v>348</v>
       </c>
-      <c r="O22" s="111">
+      <c r="O22" s="133">
         <f t="shared" si="6"/>
         <v>289</v>
       </c>
-      <c r="P22" s="112">
+      <c r="P22" s="49">
         <v>0.28899999999999998</v>
       </c>
-      <c r="Q22" s="113">
+      <c r="Q22" s="58">
         <f t="shared" si="5"/>
         <v>3.495159204501765</v>
       </c>
-      <c r="R22" s="71">
+      <c r="R22" s="27">
         <v>49.5</v>
       </c>
-      <c r="S22" s="88"/>
-      <c r="T22" s="80">
+      <c r="S22" s="45"/>
+      <c r="T22" s="41">
         <f t="shared" si="2"/>
         <v>289</v>
       </c>
-      <c r="U22" s="81">
+      <c r="U22" s="32">
         <f t="shared" si="4"/>
         <v>2.8899999999999998E-4</v>
       </c>
-      <c r="V22" s="81"/>
-      <c r="W22" s="81"/>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="87"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="156"/>
+      <c r="Y22" s="159"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="70">
+      <c r="A23" s="28">
         <v>44761</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="114">
+      <c r="C23" s="90">
         <v>3.6</v>
       </c>
-      <c r="D23" s="114" t="s">
+      <c r="D23" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="114" t="s">
+      <c r="E23" s="148" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="114">
+      <c r="F23" s="90">
         <v>10</v>
       </c>
-      <c r="G23" s="114" t="s">
+      <c r="G23" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="114" t="s">
+      <c r="H23" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="114">
+      <c r="I23" s="90">
         <v>1</v>
       </c>
-      <c r="J23" s="114">
+      <c r="J23" s="90">
         <v>47</v>
       </c>
-      <c r="K23" s="109"/>
-      <c r="L23" s="115">
+      <c r="K23" s="48"/>
+      <c r="L23" s="135">
         <f t="shared" si="3"/>
         <v>21.338000000000001</v>
       </c>
-      <c r="M23" s="116">
+      <c r="M23" s="131">
         <v>6.2</v>
       </c>
-      <c r="N23" s="116">
+      <c r="N23" s="131">
         <v>194</v>
       </c>
-      <c r="O23" s="117">
+      <c r="O23" s="94">
         <f>P23*1000</f>
         <v>454</v>
       </c>
-      <c r="P23" s="112">
+      <c r="P23" s="49">
         <v>0.45400000000000001</v>
       </c>
-      <c r="Q23" s="113">
+      <c r="Q23" s="58">
         <f t="shared" si="5"/>
         <v>2.3432374168150716</v>
       </c>
-      <c r="R23" s="109">
+      <c r="R23" s="48">
         <v>47</v>
       </c>
-      <c r="S23" s="88"/>
-      <c r="T23" s="80">
+      <c r="S23" s="45"/>
+      <c r="T23" s="41">
         <f t="shared" si="2"/>
         <v>454</v>
       </c>
-      <c r="U23" s="81">
+      <c r="U23" s="32">
         <f t="shared" si="4"/>
         <v>4.5399999999999998E-4</v>
       </c>
-      <c r="V23" s="81"/>
-      <c r="W23" s="81"/>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="87"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="156"/>
+      <c r="Y23" s="159"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="118">
+      <c r="A24" s="63">
         <v>44784</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="71">
+      <c r="C24" s="50">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D24" s="119" t="s">
+      <c r="D24" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="119" t="s">
+      <c r="E24" s="149" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="71">
+      <c r="F24" s="50">
         <v>6</v>
       </c>
-      <c r="G24" s="71" t="s">
+      <c r="G24" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="71" t="s">
+      <c r="H24" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="I24" s="71">
+      <c r="I24" s="50">
         <v>1</v>
       </c>
-      <c r="J24" s="71">
+      <c r="J24" s="50">
         <v>48</v>
       </c>
-      <c r="K24" s="71"/>
-      <c r="L24" s="73">
+      <c r="K24" s="50"/>
+      <c r="L24" s="29">
         <f t="shared" si="3"/>
         <v>4.8479999999999999</v>
       </c>
-      <c r="M24" s="107">
+      <c r="M24" s="122">
         <v>9</v>
       </c>
-      <c r="N24" s="85">
+      <c r="N24" s="82">
         <v>115</v>
       </c>
-      <c r="O24" s="76">
+      <c r="O24" s="30">
         <f t="shared" si="6"/>
         <v>101</v>
       </c>
-      <c r="P24" s="77">
+      <c r="P24" s="47">
         <v>0.10100000000000001</v>
       </c>
-      <c r="Q24" s="78">
+      <c r="Q24" s="56">
         <f t="shared" si="5"/>
         <v>10.313531353135314</v>
       </c>
-      <c r="R24" s="71">
+      <c r="R24" s="50">
         <v>48</v>
       </c>
-      <c r="S24" s="79"/>
-      <c r="T24" s="80">
+      <c r="S24" s="44"/>
+      <c r="T24" s="41">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="U24" s="81">
+      <c r="U24" s="32">
         <f t="shared" si="4"/>
         <v>1.01E-4</v>
       </c>
-      <c r="X24" s="86"/>
-      <c r="Y24" s="87"/>
+      <c r="X24" s="156"/>
+      <c r="Y24" s="159"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="118">
+      <c r="A25" s="63">
         <v>44784</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="90">
+      <c r="C25" s="91">
         <v>4.2</v>
       </c>
-      <c r="D25" s="119" t="s">
+      <c r="D25" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="119" t="s">
+      <c r="E25" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="90">
+      <c r="F25" s="91">
         <v>16</v>
       </c>
-      <c r="G25" s="90" t="s">
+      <c r="G25" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="H25" s="90" t="s">
+      <c r="H25" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="I25" s="90">
+      <c r="I25" s="91">
         <v>1</v>
       </c>
-      <c r="J25" s="90">
+      <c r="J25" s="91">
         <v>48</v>
       </c>
-      <c r="K25" s="71"/>
-      <c r="L25" s="91">
+      <c r="K25" s="50"/>
+      <c r="L25" s="134">
         <f t="shared" si="3"/>
         <v>6.72</v>
       </c>
-      <c r="M25" s="120">
+      <c r="M25" s="88">
         <v>6.2</v>
       </c>
-      <c r="N25" s="101">
+      <c r="N25" s="87">
         <v>148</v>
       </c>
-      <c r="O25" s="76">
+      <c r="O25" s="30">
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
-      <c r="P25" s="77">
+      <c r="P25" s="47">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q25" s="78">
+      <c r="Q25" s="56">
         <f t="shared" si="5"/>
         <v>7.4404761904761907</v>
       </c>
-      <c r="R25" s="71">
+      <c r="R25" s="50">
         <v>48</v>
       </c>
-      <c r="S25" s="79"/>
-      <c r="T25" s="80">
+      <c r="S25" s="44"/>
+      <c r="T25" s="41">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="U25" s="81">
+      <c r="U25" s="32">
         <f t="shared" si="4"/>
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="87"/>
+      <c r="X25" s="156"/>
+      <c r="Y25" s="159"/>
     </row>
     <row r="26" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="121">
+      <c r="A26" s="64">
         <v>44784</v>
       </c>
-      <c r="B26" s="122" t="s">
+      <c r="B26" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="122">
+      <c r="C26" s="60">
         <v>4.3</v>
       </c>
-      <c r="D26" s="123" t="s">
+      <c r="D26" s="150" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="123" t="s">
+      <c r="E26" s="150" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="122">
+      <c r="F26" s="60">
         <v>8</v>
       </c>
-      <c r="G26" s="122" t="s">
+      <c r="G26" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="122" t="s">
+      <c r="H26" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="122">
+      <c r="I26" s="60">
         <v>1</v>
       </c>
-      <c r="J26" s="122">
+      <c r="J26" s="60">
         <v>48</v>
       </c>
-      <c r="K26" s="122"/>
-      <c r="L26" s="124">
+      <c r="K26" s="60"/>
+      <c r="L26" s="66">
         <f t="shared" si="3"/>
         <v>8.64</v>
       </c>
-      <c r="M26" s="125">
+      <c r="M26" s="84">
         <v>9.1</v>
       </c>
-      <c r="N26" s="126">
+      <c r="N26" s="77">
         <v>204</v>
       </c>
-      <c r="O26" s="127">
+      <c r="O26" s="67">
         <f>P26*1000</f>
         <v>180</v>
       </c>
-      <c r="P26" s="128">
+      <c r="P26" s="68">
         <v>0.18</v>
       </c>
-      <c r="Q26" s="129">
+      <c r="Q26" s="59">
         <f t="shared" si="5"/>
         <v>5.7870370370370363</v>
       </c>
-      <c r="R26" s="122">
+      <c r="R26" s="60">
         <v>48</v>
       </c>
-      <c r="S26" s="130"/>
-      <c r="T26" s="131">
+      <c r="S26" s="53"/>
+      <c r="T26" s="69">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="U26" s="132">
+      <c r="U26" s="70">
         <f t="shared" si="4"/>
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="V26" s="133"/>
-      <c r="W26" s="134"/>
-      <c r="X26" s="135"/>
-      <c r="Y26" s="136"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="157"/>
+      <c r="Y26" s="160"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C27" s="81"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="138"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="139"/>
-      <c r="O27" s="138"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="138"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="140"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="81"/>
-      <c r="X27" s="141"/>
-      <c r="Y27" s="140"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="32"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="62"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C28" s="142">
+      <c r="C28" s="33">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D28" s="119" t="s">
+      <c r="D28" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="119" t="s">
+      <c r="E28" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="119" t="s">
+      <c r="F28" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="142" t="s">
+      <c r="G28" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="142">
+      <c r="H28" s="33">
         <v>13</v>
       </c>
-      <c r="I28" s="142">
+      <c r="I28" s="33">
         <v>2.5</v>
       </c>
-      <c r="J28" s="142">
+      <c r="J28" s="33">
         <v>10.5</v>
       </c>
-      <c r="K28" s="143"/>
-      <c r="L28" s="144">
+      <c r="K28" s="35"/>
+      <c r="L28" s="36">
         <v>3.4049399999999999</v>
       </c>
-      <c r="M28" s="145"/>
-      <c r="N28" s="146"/>
-      <c r="O28" s="146"/>
-      <c r="P28" s="147"/>
-      <c r="Q28" s="148">
+      <c r="M28" s="95"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="75">
         <f>50/L28</f>
         <v>14.684546570570994</v>
       </c>
-      <c r="R28" s="148"/>
-      <c r="S28" s="149"/>
-      <c r="T28" s="150">
+      <c r="R28" s="75"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="40">
         <v>326.428</v>
       </c>
-      <c r="U28" s="142" t="s">
+      <c r="U28" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="V28" s="142">
+      <c r="V28" s="33">
         <v>2.0819999999999999</v>
       </c>
-      <c r="W28" s="142">
+      <c r="W28" s="33">
         <v>2.093</v>
       </c>
-      <c r="X28" s="151" t="s">
+      <c r="X28" s="154" t="s">
         <v>80</v>
       </c>
-      <c r="Y28" s="151" t="s">
+      <c r="Y28" s="154" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C29" s="142">
+      <c r="C29" s="33">
         <v>4.2</v>
       </c>
-      <c r="D29" s="119" t="s">
+      <c r="D29" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="119" t="s">
+      <c r="E29" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="119" t="s">
+      <c r="F29" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="142" t="s">
+      <c r="G29" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="142">
+      <c r="H29" s="33">
         <v>13</v>
       </c>
-      <c r="I29" s="142">
+      <c r="I29" s="33">
         <v>2.5</v>
       </c>
-      <c r="J29" s="142">
+      <c r="J29" s="33">
         <v>10.5</v>
       </c>
-      <c r="K29" s="143"/>
-      <c r="L29" s="144">
+      <c r="K29" s="35"/>
+      <c r="L29" s="36">
         <v>8.074605</v>
       </c>
-      <c r="M29" s="145"/>
-      <c r="N29" s="146"/>
-      <c r="O29" s="146"/>
-      <c r="P29" s="147"/>
-      <c r="Q29" s="144">
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="36">
         <f>50/L29</f>
         <v>6.192253367192575</v>
       </c>
-      <c r="R29" s="144"/>
-      <c r="S29" s="149"/>
-      <c r="T29" s="150">
+      <c r="R29" s="36"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="40">
         <v>769.01</v>
       </c>
-      <c r="U29" s="142" t="s">
+      <c r="U29" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="V29" s="142">
+      <c r="V29" s="33">
         <v>2.089</v>
       </c>
-      <c r="W29" s="142">
+      <c r="W29" s="33">
         <v>1.8859999999999999</v>
       </c>
-      <c r="X29" s="151"/>
-      <c r="Y29" s="151"/>
+      <c r="X29" s="154"/>
+      <c r="Y29" s="154"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C30" s="142">
+      <c r="C30" s="33">
         <v>4.3</v>
       </c>
-      <c r="D30" s="119" t="s">
+      <c r="D30" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="119" t="s">
+      <c r="E30" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="119" t="s">
+      <c r="F30" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="142" t="s">
+      <c r="G30" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="142">
+      <c r="H30" s="33">
         <v>13</v>
       </c>
-      <c r="I30" s="142">
+      <c r="I30" s="33">
         <v>2.5</v>
       </c>
-      <c r="J30" s="142">
+      <c r="J30" s="33">
         <v>10.5</v>
       </c>
-      <c r="K30" s="143"/>
-      <c r="L30" s="144">
+      <c r="K30" s="35"/>
+      <c r="L30" s="36">
         <v>11.830707</v>
       </c>
-      <c r="M30" s="145"/>
-      <c r="N30" s="146"/>
-      <c r="O30" s="146"/>
-      <c r="P30" s="147"/>
-      <c r="Q30" s="144">
+      <c r="M30" s="95"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="36">
         <f>50/L30</f>
         <v>4.2262901109798428</v>
       </c>
-      <c r="R30" s="144"/>
-      <c r="S30" s="149"/>
-      <c r="T30" s="150">
+      <c r="R30" s="36"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="40">
         <v>1126.7339999999999</v>
       </c>
-      <c r="U30" s="142" t="s">
+      <c r="U30" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="V30" s="142">
+      <c r="V30" s="33">
         <v>2.097</v>
       </c>
-      <c r="W30" s="142">
+      <c r="W30" s="33">
         <v>2.2229999999999999</v>
       </c>
-      <c r="X30" s="151"/>
-      <c r="Y30" s="151"/>
+      <c r="X30" s="154"/>
+      <c r="Y30" s="154"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="M31" s="153"/>
-      <c r="N31" s="153"/>
-      <c r="O31" s="153"/>
-      <c r="P31" s="154"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="98"/>
+      <c r="P31" s="99"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C32" s="156"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="152" t="s">
+      <c r="C32" s="43"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="31" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="69" t="s">
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="26" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="159"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="69" t="s">
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="26" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="158"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="69" t="s">
+      <c r="C38" s="121"/>
+      <c r="D38" s="153"/>
+      <c r="E38" s="153"/>
+      <c r="F38" s="26" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8048,7 +8038,7 @@
                     <xdr:col>18</xdr:col>
                     <xdr:colOff>552450</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -8070,7 +8060,7 @@
                     <xdr:col>18</xdr:col>
                     <xdr:colOff>552450</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -8179,8 +8169,8 @@
                   <to>
                     <xdr:col>18</xdr:col>
                     <xdr:colOff>552450</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -8202,7 +8192,7 @@
                     <xdr:col>18</xdr:col>
                     <xdr:colOff>552450</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -8422,7 +8412,7 @@
                     <xdr:col>18</xdr:col>
                     <xdr:colOff>552450</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -8444,7 +8434,7 @@
                     <xdr:col>18</xdr:col>
                     <xdr:colOff>552450</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -8532,7 +8522,7 @@
                     <xdr:col>18</xdr:col>
                     <xdr:colOff>552450</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -8554,7 +8544,7 @@
                     <xdr:col>18</xdr:col>
                     <xdr:colOff>552450</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -8576,7 +8566,7 @@
                     <xdr:col>18</xdr:col>
                     <xdr:colOff>552450</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -8642,7 +8632,7 @@
                     <xdr:col>18</xdr:col>
                     <xdr:colOff>552450</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -8777,572 +8767,572 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48" t="s">
+      <c r="A16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="161" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="163" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="164"/>
+      <c r="H16" s="165"/>
     </row>
     <row r="17" spans="1:8" ht="48.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="B17" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="C17" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="D17" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="44" t="s">
+      <c r="E17" s="105" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="G17" s="140" t="s">
         <v>114</v>
+      </c>
+      <c r="H17" s="141" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
+      <c r="A18" s="106">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="106">
         <v>1</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="107">
         <v>466</v>
       </c>
-      <c r="D18" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="32">
+      <c r="D18" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="109">
         <v>7.9</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
+      <c r="A19" s="110">
         <v>1.2</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="106">
         <v>2</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="111">
         <v>344</v>
       </c>
-      <c r="D19" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="35">
+      <c r="D19" s="108" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="112">
         <v>8.6</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
+      <c r="A20" s="106">
         <v>1.3</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="106">
         <v>3</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="111">
         <v>344</v>
       </c>
-      <c r="D20" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="35">
+      <c r="D20" s="108" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="112">
         <v>8.4</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
+      <c r="A21" s="110">
         <v>1.4</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="106">
         <v>4</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="111">
         <v>238</v>
       </c>
-      <c r="D21" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="35">
+      <c r="D21" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="112">
         <v>8.9</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="29">
+      <c r="A22" s="106">
         <v>1.5</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="106">
         <v>5</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="111">
         <v>308</v>
       </c>
-      <c r="D22" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="35">
+      <c r="D22" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="112">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="A23" s="110">
         <v>1.6</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="106">
         <v>6</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="111">
         <v>758</v>
       </c>
-      <c r="D23" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="35">
+      <c r="D23" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="112">
         <v>9.4</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
+      <c r="A24" s="106">
         <v>1.7</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="106">
         <v>7</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="111">
         <v>183</v>
       </c>
-      <c r="D24" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="35">
+      <c r="D24" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="112">
         <v>8.1</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
+      <c r="A25" s="110">
         <v>1.8</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="106">
         <v>8</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="111">
         <v>464</v>
       </c>
-      <c r="D25" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="35">
+      <c r="D25" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="112">
         <v>6.8</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="36">
+      <c r="A26" s="113">
         <v>2.1</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="114">
         <v>9</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="115">
         <v>752</v>
       </c>
-      <c r="D26" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="38">
+      <c r="D26" s="116" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="115">
         <v>5</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="110">
         <v>680</v>
       </c>
-      <c r="G26" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" s="33">
+      <c r="G26" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="110">
         <v>7.8</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
+      <c r="A27" s="110">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="106">
         <v>10</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="111">
         <v>824</v>
       </c>
-      <c r="D27" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="35">
+      <c r="D27" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="112">
         <v>8.5</v>
       </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
+      <c r="A28" s="110">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="106">
         <v>11</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="111">
         <v>492</v>
       </c>
-      <c r="D28" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="35">
+      <c r="D28" s="108" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="112">
         <v>6.4</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
+      <c r="A29" s="110">
         <v>2.4</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="106">
         <v>12</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="111">
         <v>238</v>
       </c>
-      <c r="D29" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="35">
+      <c r="D29" s="117" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="112">
         <v>10</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="36">
+      <c r="A30" s="113">
         <v>2.5</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="114">
         <v>13</v>
       </c>
-      <c r="C30" s="38">
+      <c r="C30" s="115">
         <v>276</v>
       </c>
-      <c r="D30" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="38">
+      <c r="D30" s="118" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="115">
         <v>3</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="110">
         <v>476</v>
       </c>
-      <c r="G30" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="H30" s="33">
+      <c r="G30" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="110">
         <v>7.5</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="36">
+      <c r="A31" s="113">
         <v>2.6</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="114">
         <v>14</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="115">
         <v>334</v>
       </c>
-      <c r="D31" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="38">
+      <c r="D31" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="115">
         <v>1.3</v>
       </c>
-      <c r="F31" s="33">
+      <c r="F31" s="110">
         <v>202</v>
       </c>
-      <c r="G31" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="H31" s="33">
+      <c r="G31" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="110">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="33">
+      <c r="A32" s="110">
         <v>2.7</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="106">
         <v>15</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="111">
         <v>102</v>
       </c>
-      <c r="D32" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" s="35">
+      <c r="D32" s="117" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="112">
         <v>7.2</v>
       </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="36">
+      <c r="A33" s="113">
         <v>2.8</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="114">
         <v>16</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33" s="115">
         <v>654</v>
       </c>
-      <c r="D33" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="E33" s="38">
+      <c r="D33" s="118" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="115">
         <v>5.5</v>
       </c>
-      <c r="F33" s="33">
+      <c r="F33" s="110">
         <v>630</v>
       </c>
-      <c r="G33" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="H33" s="33">
+      <c r="G33" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="110">
         <v>7.2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="33">
+      <c r="A34" s="110">
         <v>3.1</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="106">
         <v>17</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="111">
         <v>165</v>
       </c>
-      <c r="D34" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="35">
+      <c r="D34" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="112">
         <v>9</v>
       </c>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="33">
+      <c r="A35" s="110">
         <v>3.2</v>
       </c>
-      <c r="B35" s="29">
+      <c r="B35" s="106">
         <v>18</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="111">
         <v>282</v>
       </c>
-      <c r="D35" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="35">
+      <c r="D35" s="117" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="112">
         <v>8</v>
       </c>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="33">
+      <c r="A36" s="110">
         <v>3.3</v>
       </c>
-      <c r="B36" s="29">
+      <c r="B36" s="106">
         <v>19</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C36" s="111">
         <v>306</v>
       </c>
-      <c r="D36" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="E36" s="35">
+      <c r="D36" s="117" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="112">
         <v>7.1</v>
       </c>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="33">
+      <c r="A37" s="110">
         <v>3.4</v>
       </c>
-      <c r="B37" s="29">
+      <c r="B37" s="106">
         <v>20</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="111">
         <v>238</v>
       </c>
-      <c r="D37" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37" s="35">
+      <c r="D37" s="117" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="112">
         <v>6.8</v>
       </c>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="36">
+      <c r="A38" s="113">
         <v>3.5</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="114">
         <v>21</v>
       </c>
-      <c r="C38" s="38">
+      <c r="C38" s="115">
         <v>244</v>
       </c>
-      <c r="D38" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="E38" s="38">
+      <c r="D38" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="115">
         <v>5.4</v>
       </c>
-      <c r="F38" s="33">
+      <c r="F38" s="110">
         <v>348</v>
       </c>
-      <c r="G38" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="H38" s="33">
+      <c r="G38" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="110">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="33">
+      <c r="A39" s="110">
         <v>3.6</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B39" s="106">
         <v>22</v>
       </c>
-      <c r="C39" s="34">
+      <c r="C39" s="111">
         <v>194</v>
       </c>
-      <c r="D39" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" s="35">
+      <c r="D39" s="117" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="112">
         <v>6.2</v>
       </c>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="33">
+      <c r="A40" s="110">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B40" s="106">
         <v>23</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="111">
         <v>115</v>
       </c>
-      <c r="D40" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="35">
+      <c r="D40" s="117" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="112">
         <v>9</v>
       </c>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="33">
+      <c r="A41" s="110">
         <v>4.2</v>
       </c>
-      <c r="B41" s="29">
+      <c r="B41" s="106">
         <v>24</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41" s="111">
         <v>148</v>
       </c>
-      <c r="D41" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="E41" s="35">
+      <c r="D41" s="117" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="112">
         <v>6.2</v>
       </c>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="33">
+      <c r="A42" s="110">
         <v>4.3</v>
       </c>
-      <c r="B42" s="29">
+      <c r="B42" s="106">
         <v>25</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C42" s="111">
         <v>204</v>
       </c>
-      <c r="D42" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42" s="35">
+      <c r="D42" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="112">
         <v>9.1</v>
       </c>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="43"/>
+      <c r="A43" s="110"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="120"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="43"/>
+      <c r="A44" s="110"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9387,10 +9377,10 @@
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="52"/>
+      <c r="E1" s="167"/>
       <c r="F1" s="18" t="s">
         <v>27</v>
       </c>
@@ -9462,7 +9452,7 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="168" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="14"/>
@@ -9504,7 +9494,7 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="168"/>
       <c r="B3" s="14"/>
       <c r="C3" s="3">
         <v>44686.663935185185</v>
@@ -9544,7 +9534,7 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="168"/>
       <c r="B4" s="14"/>
       <c r="C4" s="3">
         <v>44686.664756944447</v>
@@ -9590,10 +9580,10 @@
       <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="170"/>
       <c r="F6" s="19" t="s">
         <v>27</v>
       </c>
@@ -9665,7 +9655,7 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="171" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="15"/>
@@ -9707,7 +9697,7 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="171"/>
       <c r="B8" s="15"/>
       <c r="C8" s="1">
         <v>44686.676932870374</v>
@@ -9747,7 +9737,7 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="171"/>
       <c r="B9" s="15"/>
       <c r="C9" s="1">
         <v>44686.677430555559</v>
